--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-909702.9671557702</v>
+        <v>-912539.3007178218</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>232.2791855053266</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015063</v>
+        <v>19.98946990210334</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.983734155544015</v>
       </c>
       <c r="E3" t="n">
-        <v>120.5148485509368</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123.9222829666542</v>
+        <v>133.2441737772614</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>215.0845781150035</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>72.63544656439296</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>116.1772237616405</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>194.7799829046284</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>46.11256618055834</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.3670541120064</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>273.1377442018558</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.6956587478528</v>
+        <v>11.69565874785283</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>302.5338066903381</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.3058622603535</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>211.4193320986421</v>
+        <v>251.0570866064539</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.4135598774898</v>
       </c>
       <c r="H9" t="n">
-        <v>93.5961199244029</v>
+        <v>93.59611992440287</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>22.94854209304327</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>135.8350609940666</v>
       </c>
       <c r="T9" t="n">
-        <v>192.3856464773766</v>
+        <v>11.99202342648156</v>
       </c>
       <c r="U9" t="n">
         <v>225.8144112069142</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>48.23761481944593</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3729680015774</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>104.5417170941245</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>195.8190728447771</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.0322681761523</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>120.1891163889489</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>227.3804944273584</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>331.6388439349683</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>298.9494425801223</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>139.9674716903399</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440905</v>
+        <v>38.03682829123471</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>139.741432963709</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>176.107782726943</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.83802857056186</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>146.1850499531015</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>66.25628701154714</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>139.7414329637104</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,13 +2533,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>26.07046444232026</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,13 +2564,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784701</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>84.8780074336928</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>80.67842139643641</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2798,16 +2798,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722629</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,13 +3241,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>242.2547062148086</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002303</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541852</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.477863438847</v>
+        <v>307.6661507067968</v>
       </c>
       <c r="C2" t="n">
-        <v>553.8524235344767</v>
+        <v>41.28849413961882</v>
       </c>
       <c r="D2" t="n">
-        <v>553.8524235344767</v>
+        <v>41.28849413961882</v>
       </c>
       <c r="E2" t="n">
-        <v>287.4747669672986</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672986</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G2" t="n">
         <v>21.0971104001205</v>
@@ -4343,7 +4343,7 @@
         <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4358,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>574.0438072739748</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>574.0438072739748</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>307.6661507067968</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>454.6789963856518</v>
+        <v>455.9221512163495</v>
       </c>
       <c r="C3" t="n">
-        <v>280.2259671045248</v>
+        <v>455.9221512163495</v>
       </c>
       <c r="D3" t="n">
-        <v>280.2259671045248</v>
+        <v>449.8779753016586</v>
       </c>
       <c r="E3" t="n">
-        <v>158.4937968510533</v>
+        <v>449.8779753016586</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
@@ -4416,43 +4416,43 @@
         <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>503.6022960313626</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>713.6562631339676</v>
+        <v>648.3904695545987</v>
       </c>
       <c r="O3" t="n">
-        <v>883.5948104606975</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>1000.652410494101</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374626</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="U3" t="n">
-        <v>858.0464416374626</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="V3" t="n">
-        <v>622.8943334057199</v>
+        <v>455.9221512163495</v>
       </c>
       <c r="W3" t="n">
-        <v>622.8943334057199</v>
+        <v>455.9221512163495</v>
       </c>
       <c r="X3" t="n">
-        <v>622.8943334057199</v>
+        <v>455.9221512163495</v>
       </c>
       <c r="Y3" t="n">
-        <v>622.8943334057199</v>
+        <v>455.9221512163495</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>442.5112610966762</v>
+        <v>171.2137498124562</v>
       </c>
       <c r="C4" t="n">
-        <v>442.5112610966762</v>
+        <v>171.2137498124562</v>
       </c>
       <c r="D4" t="n">
-        <v>292.3946216843404</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
         <v>21.0971104001205</v>
@@ -4492,16 +4492,16 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4519,19 +4519,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>533.7933752329599</v>
       </c>
       <c r="W4" t="n">
-        <v>788.477863438847</v>
+        <v>533.7933752329599</v>
       </c>
       <c r="X4" t="n">
-        <v>788.477863438847</v>
+        <v>305.8038243349425</v>
       </c>
       <c r="Y4" t="n">
-        <v>567.6852842953168</v>
+        <v>305.8038243349425</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>634.1670622275113</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="C5" t="n">
-        <v>634.1670622275113</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="D5" t="n">
-        <v>634.1670622275113</v>
+        <v>367.7894056603332</v>
       </c>
       <c r="E5" t="n">
-        <v>367.7894056603333</v>
+        <v>367.7894056603332</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5322560492186</v>
+        <v>360.8439049111298</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946894</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946894</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946894</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V5" t="n">
-        <v>900.5447187946894</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="W5" t="n">
-        <v>900.5447187946894</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="X5" t="n">
-        <v>900.5447187946894</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="Y5" t="n">
-        <v>900.5447187946894</v>
+        <v>634.1670622275112</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>620.6531535174324</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>620.6531535174324</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>471.7187438561812</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>312.4812888507257</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
         <v>21.0971104001205</v>
@@ -4647,22 +4647,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302313</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267552</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293602</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4671,25 +4671,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>906.2192216098647</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>788.8684905375005</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>788.8684905375005</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>788.8684905375005</v>
+        <v>858.1080625266021</v>
       </c>
       <c r="W6" t="n">
-        <v>788.8684905375005</v>
+        <v>858.1080625266021</v>
       </c>
       <c r="X6" t="n">
-        <v>788.8684905375005</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="Y6" t="n">
-        <v>788.8684905375005</v>
+        <v>650.2565623210693</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>390.5330160718811</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="C7" t="n">
-        <v>221.5968331439742</v>
+        <v>757.1268089128008</v>
       </c>
       <c r="D7" t="n">
-        <v>221.5968331439742</v>
+        <v>607.0101695004651</v>
       </c>
       <c r="E7" t="n">
-        <v>175.0184834666425</v>
+        <v>607.0101695004651</v>
       </c>
       <c r="F7" t="n">
-        <v>175.0184834666425</v>
+        <v>460.1202220025547</v>
       </c>
       <c r="G7" t="n">
-        <v>175.0184834666425</v>
+        <v>291.5508613575581</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>137.6294882910361</v>
       </c>
       <c r="I7" t="n">
         <v>21.0971104001205</v>
@@ -4726,19 +4726,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001382</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="W7" t="n">
-        <v>800.1710318001382</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="X7" t="n">
-        <v>572.1814809021208</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="Y7" t="n">
-        <v>572.1814809021208</v>
+        <v>926.0629918407077</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1232.7444767938</v>
+        <v>1033.672637747106</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.7444767938</v>
+        <v>1033.672637747106</v>
       </c>
       <c r="D8" t="n">
-        <v>874.4787781870496</v>
+        <v>757.7759264321001</v>
       </c>
       <c r="E8" t="n">
-        <v>874.4787781870496</v>
+        <v>371.9876738338558</v>
       </c>
       <c r="F8" t="n">
-        <v>463.4928733974421</v>
+        <v>365.0421730846523</v>
       </c>
       <c r="G8" t="n">
-        <v>47.63867264203515</v>
+        <v>353.2283763696495</v>
       </c>
       <c r="H8" t="n">
-        <v>47.63867264203515</v>
+        <v>47.63867264203528</v>
       </c>
       <c r="I8" t="n">
-        <v>47.63867264203515</v>
+        <v>47.63867264203528</v>
       </c>
       <c r="J8" t="n">
-        <v>171.488065669989</v>
+        <v>171.4880656699902</v>
       </c>
       <c r="K8" t="n">
-        <v>407.8447194216972</v>
+        <v>407.8447194216992</v>
       </c>
       <c r="L8" t="n">
-        <v>737.9678103436195</v>
+        <v>737.9678103436227</v>
       </c>
       <c r="M8" t="n">
-        <v>1136.962794348208</v>
+        <v>1136.962794348212</v>
       </c>
       <c r="N8" t="n">
-        <v>1547.027742709237</v>
+        <v>1547.027742709242</v>
       </c>
       <c r="O8" t="n">
-        <v>1920.90518412618</v>
+        <v>1920.905184126186</v>
       </c>
       <c r="P8" t="n">
-        <v>2205.49992955627</v>
+        <v>2205.499929556276</v>
       </c>
       <c r="Q8" t="n">
-        <v>2371.045984538609</v>
+        <v>2371.045984538616</v>
       </c>
       <c r="R8" t="n">
-        <v>2381.933632101757</v>
+        <v>2381.933632101764</v>
       </c>
       <c r="S8" t="n">
-        <v>2381.933632101757</v>
+        <v>2381.933632101764</v>
       </c>
       <c r="T8" t="n">
-        <v>2172.533771232713</v>
+        <v>2381.933632101764</v>
       </c>
       <c r="U8" t="n">
-        <v>1958.978890324994</v>
+        <v>2128.340615327568</v>
       </c>
       <c r="V8" t="n">
-        <v>1958.978890324994</v>
+        <v>1797.277727983997</v>
       </c>
       <c r="W8" t="n">
-        <v>1606.21023505488</v>
+        <v>1797.277727983997</v>
       </c>
       <c r="X8" t="n">
-        <v>1232.7444767938</v>
+        <v>1423.811969722918</v>
       </c>
       <c r="Y8" t="n">
-        <v>1232.7444767938</v>
+        <v>1033.672637747106</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>908.1210334537847</v>
+        <v>931.3013790023132</v>
       </c>
       <c r="C9" t="n">
-        <v>733.6680041726577</v>
+        <v>756.8483497211862</v>
       </c>
       <c r="D9" t="n">
-        <v>584.7335945114064</v>
+        <v>607.9139400599349</v>
       </c>
       <c r="E9" t="n">
-        <v>425.4961395059509</v>
+        <v>448.6764850544795</v>
       </c>
       <c r="F9" t="n">
-        <v>278.9615815328359</v>
+        <v>302.1419270813645</v>
       </c>
       <c r="G9" t="n">
-        <v>142.1802079192098</v>
+        <v>165.3605534677384</v>
       </c>
       <c r="H9" t="n">
-        <v>47.63867264203515</v>
+        <v>70.81901819056384</v>
       </c>
       <c r="I9" t="n">
-        <v>47.63867264203515</v>
+        <v>47.63867264203528</v>
       </c>
       <c r="J9" t="n">
-        <v>102.5846757192102</v>
+        <v>102.5846757192106</v>
       </c>
       <c r="K9" t="n">
-        <v>431.1459557784882</v>
+        <v>536.4715560160881</v>
       </c>
       <c r="L9" t="n">
-        <v>1020.674529723673</v>
+        <v>814.1584659783775</v>
       </c>
       <c r="M9" t="n">
-        <v>1364.078924176546</v>
+        <v>1157.562860431251</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.980856034668</v>
+        <v>1524.464792289373</v>
       </c>
       <c r="O9" t="n">
-        <v>2044.404648375521</v>
+        <v>1837.888584630227</v>
       </c>
       <c r="P9" t="n">
-        <v>2276.621807415411</v>
+        <v>2276.621807415418</v>
       </c>
       <c r="Q9" t="n">
-        <v>2381.933632101757</v>
+        <v>2381.933632101764</v>
       </c>
       <c r="R9" t="n">
-        <v>2381.933632101757</v>
+        <v>2381.933632101764</v>
       </c>
       <c r="S9" t="n">
-        <v>2244.726499784518</v>
+        <v>2244.726499784525</v>
       </c>
       <c r="T9" t="n">
-        <v>2050.397563948784</v>
+        <v>2232.613344808281</v>
       </c>
       <c r="U9" t="n">
-        <v>1822.302199093315</v>
+        <v>2004.517979952812</v>
       </c>
       <c r="V9" t="n">
-        <v>1587.150090861573</v>
+        <v>1769.365871721069</v>
       </c>
       <c r="W9" t="n">
-        <v>1332.912734133371</v>
+        <v>1515.128514992868</v>
       </c>
       <c r="X9" t="n">
-        <v>1125.061233927838</v>
+        <v>1307.277014787335</v>
       </c>
       <c r="Y9" t="n">
-        <v>1076.336370473853</v>
+        <v>1099.516716022381</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1176.814580300197</v>
+        <v>492.5583531346745</v>
       </c>
       <c r="C10" t="n">
-        <v>1176.814580300197</v>
+        <v>492.5583531346745</v>
       </c>
       <c r="D10" t="n">
-        <v>1176.814580300197</v>
+        <v>342.4417137223388</v>
       </c>
       <c r="E10" t="n">
-        <v>1176.814580300197</v>
+        <v>194.5286201399456</v>
       </c>
       <c r="F10" t="n">
-        <v>1029.924632802287</v>
+        <v>47.63867264203528</v>
       </c>
       <c r="G10" t="n">
-        <v>861.8711297703902</v>
+        <v>47.63867264203528</v>
       </c>
       <c r="H10" t="n">
-        <v>861.8711297703902</v>
+        <v>47.63867264203528</v>
       </c>
       <c r="I10" t="n">
-        <v>861.8711297703902</v>
+        <v>47.63867264203528</v>
       </c>
       <c r="J10" t="n">
-        <v>882.6950103570775</v>
+        <v>68.46255322872273</v>
       </c>
       <c r="K10" t="n">
-        <v>1046.751879717941</v>
+        <v>232.5194225895869</v>
       </c>
       <c r="L10" t="n">
-        <v>1312.214624299587</v>
+        <v>497.9821671712323</v>
       </c>
       <c r="M10" t="n">
-        <v>1602.496990932148</v>
+        <v>788.2645338037942</v>
       </c>
       <c r="N10" t="n">
-        <v>1891.311708121032</v>
+        <v>1077.079250992678</v>
       </c>
       <c r="O10" t="n">
-        <v>2142.062549947047</v>
+        <v>1327.830092818693</v>
       </c>
       <c r="P10" t="n">
-        <v>2333.102531446831</v>
+        <v>1518.870074318478</v>
       </c>
       <c r="Q10" t="n">
-        <v>2381.933632101757</v>
+        <v>1567.701174973404</v>
       </c>
       <c r="R10" t="n">
-        <v>2276.335938067288</v>
+        <v>1567.701174973404</v>
       </c>
       <c r="S10" t="n">
-        <v>2078.538894789735</v>
+        <v>1567.701174973404</v>
       </c>
       <c r="T10" t="n">
-        <v>1855.273977440086</v>
+        <v>1567.701174973404</v>
       </c>
       <c r="U10" t="n">
-        <v>1855.273977440086</v>
+        <v>1446.298027105779</v>
       </c>
       <c r="V10" t="n">
-        <v>1855.273977440086</v>
+        <v>1191.613538899892</v>
       </c>
       <c r="W10" t="n">
-        <v>1625.596710341744</v>
+        <v>902.1963688629315</v>
       </c>
       <c r="X10" t="n">
-        <v>1397.607159443727</v>
+        <v>674.2068179649142</v>
       </c>
       <c r="Y10" t="n">
-        <v>1176.814580300197</v>
+        <v>674.2068179649142</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2266.424947555042</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C11" t="n">
-        <v>1897.462430614631</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D11" t="n">
-        <v>1539.19673200788</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E11" t="n">
         <v>1204.208000760437</v>
@@ -5030,61 +5030,61 @@
         <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018649</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957686</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874792</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021278</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469741</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.39853312617</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W11" t="n">
-        <v>3416.629877856056</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X11" t="n">
-        <v>3043.164119594976</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y11" t="n">
-        <v>2653.024787619164</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="K12" t="n">
-        <v>423.3203657894392</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="L12" t="n">
-        <v>914.0526986331903</v>
+        <v>583.5439560698319</v>
       </c>
       <c r="M12" t="n">
-        <v>1506.071052885318</v>
+        <v>1175.56231032196</v>
       </c>
       <c r="N12" t="n">
-        <v>2128.167016284654</v>
+        <v>1797.658273721296</v>
       </c>
       <c r="O12" t="n">
-        <v>2133.192111344164</v>
+        <v>2344.53474872149</v>
       </c>
       <c r="P12" t="n">
         <v>2552.77562977024</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1072.552373744306</v>
+        <v>745.0885253246415</v>
       </c>
       <c r="C13" t="n">
-        <v>903.6161908163995</v>
+        <v>576.1523423967346</v>
       </c>
       <c r="D13" t="n">
-        <v>753.4995514040637</v>
+        <v>426.0357029843989</v>
       </c>
       <c r="E13" t="n">
-        <v>605.5864578216706</v>
+        <v>278.1226094020058</v>
       </c>
       <c r="F13" t="n">
-        <v>458.6965103237602</v>
+        <v>131.2326619040954</v>
       </c>
       <c r="G13" t="n">
-        <v>317.3152257880633</v>
+        <v>131.2326619040954</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>131.2326619040954</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q13" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.516429368668</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S13" t="n">
-        <v>2177.346239107598</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T13" t="n">
-        <v>1957.66745682198</v>
+        <v>2208.69699212455</v>
       </c>
       <c r="U13" t="n">
-        <v>1957.66745682198</v>
+        <v>1919.620778439276</v>
       </c>
       <c r="V13" t="n">
-        <v>1702.982968616093</v>
+        <v>1664.936290233389</v>
       </c>
       <c r="W13" t="n">
-        <v>1702.982968616093</v>
+        <v>1375.519120196429</v>
       </c>
       <c r="X13" t="n">
-        <v>1474.993417718076</v>
+        <v>1147.529569298411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1254.200838574546</v>
+        <v>926.7369901548813</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962605</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962605</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258105</v>
+        <v>2019.175896268433</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602303</v>
+        <v>1730.100669612631</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396416</v>
+        <v>1475.416181406744</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359455</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359455</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.537320215925</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>784.5811134804959</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>615.644930552589</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>465.5282911402533</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5753,16 +5753,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2253.988764961266</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
         <v>235.5284942057738</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,55 +6121,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6181,16 +6181,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.329899359456</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.5373202159263</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6236,7 +6236,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6245,25 +6245,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,16 +6297,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6315,16 +6315,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>870.3164745246301</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C28" t="n">
-        <v>701.3802915967232</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D28" t="n">
-        <v>551.2636521843874</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>403.3505586019943</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.747069396417</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.7575184984</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.96493935487</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6476,37 +6476,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6701,16 +6701,16 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,7 +6731,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,55 +6929,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319335</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656828</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150035</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942666</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580125</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,31 +7090,31 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.0944824954149</v>
@@ -7336,10 +7336,10 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7357,13 +7357,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7403,13 +7403,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075809</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>139.2347658407936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>139.2347658407936</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>634.5603720565524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,13 +7564,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311325</v>
@@ -7588,28 +7588,28 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580124</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345486</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
         <v>483.825546038073</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71.18793141915893</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.262887399594348</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>26.1337376721136</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8155,7 +8155,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775173</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127264</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.0757418230846</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>314.991579780703</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>208.6020845912116</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>25.85285775052316</v>
+        <v>25.85285775052299</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619743</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>132.993706265681</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707555</v>
+        <v>361.9409001701584</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>211.3301220569389</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>102.6372802204741</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.9096972152831</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22714,19 +22714,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,16 +22759,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508475</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>50.29152613729349</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>50.2915261372907</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>25.57458118682698</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>43.76774845317431</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.09054721822829</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>41.29766760034525</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>86.99395161137544</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>139.9994244361426</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>114.7699989900974</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>40.09054721822693</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>260.4525338942707</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>60.54304058923844</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,10 +24847,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>118.3918499711696</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>44.26829212178239</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1040881.472610903</v>
+        <v>1040881.472610902</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1200910.281947968</v>
+        <v>1200910.281947969</v>
       </c>
     </row>
     <row r="7">
@@ -26317,7 +26317,7 @@
         <v>225786.4867126778</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="E2" t="n">
         <v>220736.9372004585</v>
@@ -26326,34 +26326,34 @@
         <v>221965.3149147516</v>
       </c>
       <c r="G2" t="n">
+        <v>221965.3149147516</v>
+      </c>
+      <c r="H2" t="n">
         <v>221965.3149147517</v>
       </c>
-      <c r="H2" t="n">
-        <v>221965.3149147516</v>
-      </c>
       <c r="I2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="J2" t="n">
         <v>221965.3149147517</v>
       </c>
       <c r="K2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="L2" t="n">
         <v>221965.3149147516</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="O2" t="n">
         <v>225786.486712678</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>345599.0058342551</v>
+        <v>345599.0058342567</v>
       </c>
       <c r="E3" t="n">
-        <v>538787.814816308</v>
+        <v>538787.814816307</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504122</v>
+        <v>11452.26311504116</v>
       </c>
       <c r="G3" t="n">
-        <v>4.781995812663809e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>83967.88161710526</v>
+        <v>83967.88161710568</v>
       </c>
       <c r="M3" t="n">
-        <v>160143.7177104623</v>
+        <v>160143.717710462</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704785</v>
+        <v>3077.01735570473</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179498.3777110687</v>
+        <v>179498.3777110685</v>
       </c>
       <c r="C4" t="n">
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>153191.3141186911</v>
+        <v>153191.3141186907</v>
       </c>
       <c r="E4" t="n">
         <v>11160.49963056816</v>
@@ -26436,28 +26436,28 @@
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179343</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179343</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>19157.89151488696</v>
+        <v>19157.89151488701</v>
       </c>
       <c r="N4" t="n">
-        <v>19157.89151488696</v>
+        <v>19157.891514887</v>
       </c>
       <c r="O4" t="n">
-        <v>19157.89151488704</v>
+        <v>19157.89151488701</v>
       </c>
       <c r="P4" t="n">
-        <v>19157.891514887</v>
+        <v>19157.89151488702</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>89393.27759322638</v>
+        <v>89393.27759322649</v>
       </c>
       <c r="E5" t="n">
         <v>100142.1285138384</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-731407.2570105548</v>
+        <v>-731721.4350307067</v>
       </c>
       <c r="C6" t="n">
-        <v>-88488.68211060821</v>
+        <v>-88488.68211060815</v>
       </c>
       <c r="D6" t="n">
-        <v>-362397.1108334947</v>
+        <v>-362397.110833496</v>
       </c>
       <c r="E6" t="n">
-        <v>-429353.505760256</v>
+        <v>-429399.4107558207</v>
       </c>
       <c r="F6" t="n">
-        <v>98223.48972400979</v>
+        <v>98188.75179857414</v>
       </c>
       <c r="G6" t="n">
-        <v>109675.7528390506</v>
+        <v>109641.0149136152</v>
       </c>
       <c r="H6" t="n">
-        <v>109675.752839051</v>
+        <v>109641.0149136154</v>
       </c>
       <c r="I6" t="n">
-        <v>109675.7528390508</v>
+        <v>109641.0149136155</v>
       </c>
       <c r="J6" t="n">
-        <v>40676.59841993701</v>
+        <v>40641.86049450128</v>
       </c>
       <c r="K6" t="n">
-        <v>109675.7528390511</v>
+        <v>109641.0149136154</v>
       </c>
       <c r="L6" t="n">
-        <v>25707.87122194572</v>
+        <v>25673.13329650962</v>
       </c>
       <c r="M6" t="n">
-        <v>-56679.23836658653</v>
+        <v>-56679.23836658632</v>
       </c>
       <c r="N6" t="n">
         <v>100387.4619881709</v>
@@ -26561,7 +26561,7 @@
         <v>103464.4793438756</v>
       </c>
       <c r="P6" t="n">
-        <v>103464.4793438757</v>
+        <v>103464.4793438756</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>897.2608433614523</v>
+        <v>897.2608433614536</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>595.4834080254393</v>
+        <v>595.483408025441</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,19 +26811,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203973</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>283.205829591974</v>
+        <v>283.2058295919752</v>
       </c>
       <c r="E3" t="n">
-        <v>460.7802053549331</v>
+        <v>460.7802053549323</v>
       </c>
       <c r="F3" t="n">
         <v>9.93445162528792</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>331.7695280239331</v>
+        <v>331.7695280239348</v>
       </c>
       <c r="E4" t="n">
-        <v>564.6618823005667</v>
+        <v>564.6618823005657</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015065</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>331.7695280239329</v>
+        <v>331.7695280239348</v>
       </c>
       <c r="M4" t="n">
-        <v>564.661882300567</v>
+        <v>564.6618823005657</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>331.7695280239331</v>
+        <v>331.7695280239348</v>
       </c>
       <c r="M4" t="n">
-        <v>564.6618823005667</v>
+        <v>564.6618823005657</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>102.8635105723291</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>19.88677843407325</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>141.4613314090947</v>
       </c>
       <c r="E3" t="n">
-        <v>37.13023190446415</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>46.58780640467586</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,13 +27543,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27591,19 +27591,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619743</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>191.7914676267079</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>340.198728081317</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776178</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,22 +27743,22 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>78.66376382323627</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>38.02060424479683</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>100.3213964660108</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>6.783519412802107</v>
       </c>
       <c r="J7" t="n">
         <v>15.07219909888208</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27831,13 +27831,13 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>81.54529741882715</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>302.5338066903381</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>71.41398539475807</v>
+        <v>71.4139853947579</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>126.8237621768017</v>
+        <v>126.8237621768016</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.3058622603534</v>
       </c>
       <c r="U8" t="n">
-        <v>39.63775450781182</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>22.94854209304336</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,7 +27983,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>180.393623050895</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>157.4450809578584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3729680015774</v>
       </c>
       <c r="H10" t="n">
         <v>147.8415806253494</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>104.5417170941244</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>195.8190728447771</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.0322681761523</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2307741915701</v>
+        <v>166.0416578026212</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>59.14250390923257</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29518,16 +29518,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.665215465763128e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,22 +29560,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="44">
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.607078767282218</v>
+        <v>3.607078767282223</v>
       </c>
       <c r="H8" t="n">
-        <v>36.94099542542902</v>
+        <v>36.94099542542907</v>
       </c>
       <c r="I8" t="n">
-        <v>139.0619041756478</v>
+        <v>139.061904175648</v>
       </c>
       <c r="J8" t="n">
-        <v>306.1463015246194</v>
+        <v>306.1463015246198</v>
       </c>
       <c r="K8" t="n">
-        <v>458.8339457436758</v>
+        <v>458.8339457436764</v>
       </c>
       <c r="L8" t="n">
-        <v>569.224082567889</v>
+        <v>569.2240825678898</v>
       </c>
       <c r="M8" t="n">
-        <v>633.3714695955441</v>
+        <v>633.371469595545</v>
       </c>
       <c r="N8" t="n">
-        <v>643.6200821430848</v>
+        <v>643.6200821430857</v>
       </c>
       <c r="O8" t="n">
-        <v>607.7521926509222</v>
+        <v>607.7521926509231</v>
       </c>
       <c r="P8" t="n">
-        <v>518.7024355836423</v>
+        <v>518.7024355836431</v>
       </c>
       <c r="Q8" t="n">
-        <v>389.5239272303479</v>
+        <v>389.5239272303484</v>
       </c>
       <c r="R8" t="n">
-        <v>226.5831616152918</v>
+        <v>226.5831616152921</v>
       </c>
       <c r="S8" t="n">
-        <v>82.19630740944362</v>
+        <v>82.19630740944373</v>
       </c>
       <c r="T8" t="n">
-        <v>15.78998730377792</v>
+        <v>15.78998730377794</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2885663013825773</v>
+        <v>0.2885663013825778</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.92995728572086</v>
+        <v>1.929957285720862</v>
       </c>
       <c r="H9" t="n">
-        <v>18.63932431209357</v>
+        <v>18.6393243120936</v>
       </c>
       <c r="I9" t="n">
-        <v>66.44809075837172</v>
+        <v>66.44809075837181</v>
       </c>
       <c r="J9" t="n">
-        <v>182.3386398759344</v>
+        <v>182.3386398759347</v>
       </c>
       <c r="K9" t="n">
-        <v>311.645778019232</v>
+        <v>311.6457780192325</v>
       </c>
       <c r="L9" t="n">
-        <v>419.0462080246104</v>
+        <v>419.046208024611</v>
       </c>
       <c r="M9" t="n">
-        <v>489.0071596319914</v>
+        <v>489.0071596319921</v>
       </c>
       <c r="N9" t="n">
-        <v>501.9497240612336</v>
+        <v>501.9497240612343</v>
       </c>
       <c r="O9" t="n">
-        <v>459.1859336776293</v>
+        <v>459.1859336776299</v>
       </c>
       <c r="P9" t="n">
-        <v>368.5371943233105</v>
+        <v>368.537194323311</v>
       </c>
       <c r="Q9" t="n">
-        <v>246.3573545772803</v>
+        <v>246.3573545772806</v>
       </c>
       <c r="R9" t="n">
-        <v>119.8266462134408</v>
+        <v>119.826646213441</v>
       </c>
       <c r="S9" t="n">
-        <v>35.84811010977121</v>
+        <v>35.84811010977126</v>
       </c>
       <c r="T9" t="n">
-        <v>7.779082217445041</v>
+        <v>7.779082217445052</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1269708740605829</v>
+        <v>0.1269708740605831</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.618011356881307</v>
+        <v>1.618011356881309</v>
       </c>
       <c r="H10" t="n">
-        <v>14.38559188209018</v>
+        <v>14.3855918820902</v>
       </c>
       <c r="I10" t="n">
-        <v>48.65801425966696</v>
+        <v>48.65801425966703</v>
       </c>
       <c r="J10" t="n">
-        <v>114.3934029315084</v>
+        <v>114.3934029315086</v>
       </c>
       <c r="K10" t="n">
-        <v>187.9835012813009</v>
+        <v>187.9835012813012</v>
       </c>
       <c r="L10" t="n">
-        <v>240.55416118579</v>
+        <v>240.5541611857904</v>
       </c>
       <c r="M10" t="n">
-        <v>253.6306347882216</v>
+        <v>253.630634788222</v>
       </c>
       <c r="N10" t="n">
-        <v>247.5998651853006</v>
+        <v>247.5998651853009</v>
       </c>
       <c r="O10" t="n">
-        <v>228.6985506980961</v>
+        <v>228.6985506980965</v>
       </c>
       <c r="P10" t="n">
-        <v>195.6911190177173</v>
+        <v>195.6911190177176</v>
       </c>
       <c r="Q10" t="n">
-        <v>135.4863873475793</v>
+        <v>135.4863873475795</v>
       </c>
       <c r="R10" t="n">
-        <v>72.75167428304495</v>
+        <v>72.75167428304505</v>
       </c>
       <c r="S10" t="n">
-        <v>28.19752519219514</v>
+        <v>28.19752519219518</v>
       </c>
       <c r="T10" t="n">
-        <v>6.91332125212922</v>
+        <v>6.91332125212923</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08825516492079868</v>
+        <v>0.08825516492079881</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,22 +31841,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848223</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745723</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.13237155043</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927636</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>147.6720980399091</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982452</v>
+        <v>344.3187317059969</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
         <v>205.0641983561742</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N15" t="n">
-        <v>641.2555750770858</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32312,28 +32312,28 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>364.3208035245835</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>338.1920576279218</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>279.0775374915851</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>671.2522281007816</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>303.7670002884146</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>170.9292585737925</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>693.4464364470641</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>263.7138800015063</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>217.4386117456601</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.75061566861001</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827497113</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089031</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>245.5483596572287</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>125.1003969979331</v>
+        <v>125.1003969979336</v>
       </c>
       <c r="K8" t="n">
-        <v>238.7440946986952</v>
+        <v>238.7440946986958</v>
       </c>
       <c r="L8" t="n">
-        <v>333.4576675979018</v>
+        <v>333.4576675979026</v>
       </c>
       <c r="M8" t="n">
-        <v>403.0252363682714</v>
+        <v>403.0252363682723</v>
       </c>
       <c r="N8" t="n">
-        <v>414.2070185464939</v>
+        <v>414.2070185464948</v>
       </c>
       <c r="O8" t="n">
-        <v>377.6539812292355</v>
+        <v>377.6539812292364</v>
       </c>
       <c r="P8" t="n">
-        <v>287.4694398283728</v>
+        <v>287.4694398283736</v>
       </c>
       <c r="Q8" t="n">
-        <v>167.2182373558984</v>
+        <v>167.2182373558989</v>
       </c>
       <c r="R8" t="n">
-        <v>10.99762380115968</v>
+        <v>10.99762380115999</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>55.50101320926771</v>
+        <v>55.50101320926797</v>
       </c>
       <c r="K9" t="n">
-        <v>331.8800808679576</v>
+        <v>438.2695760574521</v>
       </c>
       <c r="L9" t="n">
-        <v>595.4834080254393</v>
+        <v>280.4918282447368</v>
       </c>
       <c r="M9" t="n">
-        <v>346.8731257099731</v>
+        <v>346.8731257099738</v>
       </c>
       <c r="N9" t="n">
-        <v>370.6080119779003</v>
+        <v>370.608011977901</v>
       </c>
       <c r="O9" t="n">
-        <v>316.5896892331849</v>
+        <v>316.5896892331855</v>
       </c>
       <c r="P9" t="n">
-        <v>234.5627869089803</v>
+        <v>443.1648715001924</v>
       </c>
       <c r="Q9" t="n">
-        <v>106.3755804912588</v>
+        <v>106.3755804912591</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>21.03422281483564</v>
+        <v>21.0342228148358</v>
       </c>
       <c r="K10" t="n">
-        <v>165.7140094554181</v>
+        <v>165.7140094554183</v>
       </c>
       <c r="L10" t="n">
-        <v>268.1441864461062</v>
+        <v>268.1441864461065</v>
       </c>
       <c r="M10" t="n">
-        <v>293.2145117500622</v>
+        <v>293.2145117500626</v>
       </c>
       <c r="N10" t="n">
-        <v>291.7320375645292</v>
+        <v>291.7320375645295</v>
       </c>
       <c r="O10" t="n">
-        <v>253.2836786121358</v>
+        <v>253.2836786121361</v>
       </c>
       <c r="P10" t="n">
-        <v>192.9696782826108</v>
+        <v>192.9696782826111</v>
       </c>
       <c r="Q10" t="n">
-        <v>49.32434409588491</v>
+        <v>49.32434409588511</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104633</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946981</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094304</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>5.075853595464669</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>423.821735783915</v>
+        <v>210.3443242916667</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N15" t="n">
-        <v>509.9138629937526</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>224.339029438562</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>196.0580237059035</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>136.4812930471406</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>528.6559836563372</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>44.09163190712584</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>562.1047243637308</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
